--- a/HPReserger/Resources/LISTADO DE VENTAS.xlsx
+++ b/HPReserger/Resources/LISTADO DE VENTAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPReserger\HpReserger\HPReserger\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7BFF21-7D8E-42BE-A70D-53ED5EE066F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,19 +23,46 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>JeffOre</author>
+  </authors>
+  <commentList>
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{45770D35-597E-4FB6-A452-B087B51F5DA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ID TABLA DETRACCIONES</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t xml:space="preserve">Vou.Origen </t>
   </si>
@@ -186,9 +214,6 @@
     <t>P.fe</t>
   </si>
   <si>
-    <t>Retencion 0/1</t>
-  </si>
-  <si>
     <t>PDB ndes</t>
   </si>
   <si>
@@ -210,9 +235,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>venta</t>
-  </si>
-  <si>
     <t>01/03/2022</t>
   </si>
   <si>
@@ -307,22 +329,97 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>01/03/2023</t>
+  </si>
+  <si>
+    <t>Detraccion</t>
+  </si>
+  <si>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>VENTA CON DETRACCION</t>
+  </si>
+  <si>
+    <t>Tabla Detracciones</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>ARENA Y PIEDRA</t>
+  </si>
+  <si>
+    <t>RESIDUOS, SUBPRODUCTOS, DESECHOS, RECORTES, DESPERDICIOS Y FORMAS PRIMARIAS DERIVADAS DE LOS MISMOS</t>
+  </si>
+  <si>
+    <t>MADERA (3)</t>
+  </si>
+  <si>
+    <t>INTERMEDIACIÓN LABORAL Y TERCERIZACIÓN [1] [3]</t>
+  </si>
+  <si>
+    <t>ARRENDAMIENTO DE BIENES [1]</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO Y REPARACIÓN DE BIENES MUEBLES [5]</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO DE CARGA [3]</t>
+  </si>
+  <si>
+    <t>OTROS SERVICIOS EMPRESARIALES [3]</t>
+  </si>
+  <si>
+    <t>COMISIÓN MERCANTIL [2]</t>
+  </si>
+  <si>
+    <t>FABRICACIÓN DE BIENES POR ENCARGO [2] [3]</t>
+  </si>
+  <si>
+    <t>SERVICIO DE TRANSPORTE DE PERSONAS [2]</t>
+  </si>
+  <si>
+    <t>CONTRATOS DE CONSTRUCCIÓN [4]</t>
+  </si>
+  <si>
+    <t>DEMÁS SERVICIOS GRAVADOS CON EL IGV [6]</t>
+  </si>
+  <si>
+    <t>SERVICIO DE TRANSPORTE DE BIENES POR VÍA TERRESTRE</t>
+  </si>
+  <si>
+    <t>PRIMERA VENTA DE INMUEBLES GRAVADA CON EL IGV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -337,13 +434,38 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -372,14 +494,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -696,11 +824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -722,7 +850,7 @@
     <col min="16" max="16" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -733,7 +861,7 @@
     <col min="27" max="27" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="81.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="40.42578125" style="1" customWidth="1"/>
     <col min="31" max="31" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -758,10 +886,13 @@
     <col min="54" max="54" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="11.5703125" style="1"/>
+    <col min="57" max="57" width="11.5703125" style="1"/>
+    <col min="58" max="58" width="2.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="87.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,79 +1043,83 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG1" s="8"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="1">
+        <v>7723101</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4011101</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1212102</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="1">
-        <v>70111</v>
-      </c>
-      <c r="U2" s="1">
-        <v>40111</v>
-      </c>
-      <c r="W2" s="1">
-        <v>12111</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AE2" s="1">
         <v>2</v>
@@ -995,262 +1130,427 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="AY2" s="1">
+        <v>40</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>608</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="1">
+        <v>7723101</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4011101</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1212102</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="1">
-        <v>70111</v>
-      </c>
-      <c r="U3" s="1">
-        <v>40111</v>
-      </c>
-      <c r="W3" s="1">
-        <v>12111</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="AE3" s="1">
         <v>2</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="BF3" s="6">
+        <v>9</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1">
         <v>609</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="T4" s="1">
-        <v>70111</v>
+        <v>7723101</v>
       </c>
       <c r="U4" s="1">
-        <v>40111</v>
+        <v>4011101</v>
       </c>
       <c r="W4" s="1">
-        <v>12111</v>
+        <v>1212102</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE4" s="1">
         <v>2</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="BF4" s="6">
+        <v>10</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>610</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="1">
+        <v>7723101</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4011101</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1212102</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="1">
-        <v>70111</v>
-      </c>
-      <c r="U5" s="1">
-        <v>40111</v>
-      </c>
-      <c r="W5" s="1">
-        <v>12111</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AE5" s="1">
         <v>2</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="BF5" s="6">
+        <v>8</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1">
         <v>614</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="1">
+        <v>7723101</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4011101</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1212102</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" s="1">
-        <v>70111</v>
-      </c>
-      <c r="U6" s="1">
-        <v>40111</v>
-      </c>
-      <c r="W6" s="1">
-        <v>12111</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="AE6" s="1">
         <v>2</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AH6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>85</v>
+      <c r="BF6" s="6">
+        <v>12</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF7" s="6">
+        <v>19</v>
+      </c>
+      <c r="BG7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF8" s="6">
+        <v>20</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF9" s="6">
+        <v>21</v>
+      </c>
+      <c r="BG9" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF10" s="6">
+        <v>22</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF11" s="6">
+        <v>24</v>
+      </c>
+      <c r="BG11" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF12" s="6">
+        <v>25</v>
+      </c>
+      <c r="BG12" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF13" s="6">
+        <v>26</v>
+      </c>
+      <c r="BG13" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF14" s="6">
+        <v>30</v>
+      </c>
+      <c r="BG14" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF15" s="6">
+        <v>37</v>
+      </c>
+      <c r="BG15" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="BF16" s="6">
+        <v>27</v>
+      </c>
+      <c r="BG16" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="58:59" x14ac:dyDescent="0.15">
+      <c r="BF17" s="6">
+        <v>37</v>
+      </c>
+      <c r="BG17" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="58:59" x14ac:dyDescent="0.15">
+      <c r="BF18" s="6">
+        <v>37</v>
+      </c>
+      <c r="BG18" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="58:59" x14ac:dyDescent="0.15">
+      <c r="BF19" s="6">
+        <v>12</v>
+      </c>
+      <c r="BG19" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="58:59" x14ac:dyDescent="0.15">
+      <c r="BF20" s="6">
+        <v>22</v>
+      </c>
+      <c r="BG20" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="58:59" x14ac:dyDescent="0.15">
+      <c r="BF21" s="6">
+        <v>20</v>
+      </c>
+      <c r="BG21" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="58:59" x14ac:dyDescent="0.15">
+      <c r="BF22" s="6">
+        <v>40</v>
+      </c>
+      <c r="BG22" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="BF1:BG1"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q8 Q10:Q1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S,D"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/HPReserger/Resources/LISTADO DE VENTAS.xlsx
+++ b/HPReserger/Resources/LISTADO DE VENTAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SISGEM\HpReserger-master\HPReserger\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D75DFE-9DDD-4203-9DAA-2C26AA94BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89E7E80-02BD-4585-8812-E37EE7CB1DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="218">
   <si>
     <t xml:space="preserve">Vou.Origen </t>
   </si>
@@ -717,18 +717,12 @@
     <t>TIPOS DE FACTURACIONES</t>
   </si>
   <si>
-    <t>Factura S/.</t>
-  </si>
-  <si>
     <t>Boleta USD</t>
   </si>
   <si>
     <t>Boleta S/.</t>
   </si>
   <si>
-    <t>Factura USD</t>
-  </si>
-  <si>
     <t>1312302 - FACTURAS POR COBRAR ASOCIADAS - ME</t>
   </si>
   <si>
@@ -858,9 +852,6 @@
     <t>NOTA DE CRED. DE BOLETA DE VENTA</t>
   </si>
   <si>
-    <t>43722287</t>
-  </si>
-  <si>
     <t>RODRIGUEZ ESTRADA JOSMELL ALESSANDRI</t>
   </si>
   <si>
@@ -940,6 +931,42 @@
   </si>
   <si>
     <t>Cta Penalidad</t>
+  </si>
+  <si>
+    <t>DINAMICA PARA DOCUMENTOS ENTRE RELACIONADAS</t>
+  </si>
+  <si>
+    <t>EMPRESAS RELACIONADAS</t>
+  </si>
+  <si>
+    <t>LIBRE INMOBILIARIA SAC</t>
+  </si>
+  <si>
+    <t>LIBRE 1 S.A.C</t>
+  </si>
+  <si>
+    <t>LIBRE 3 S.A.C</t>
+  </si>
+  <si>
+    <t>COLABORA ALIADO INMOBILIARIO S.A.C</t>
+  </si>
+  <si>
+    <t>COLABORA 1 SAC</t>
+  </si>
+  <si>
+    <t>LIBRE 4 S.A.C</t>
+  </si>
+  <si>
+    <t>LIBRE 5 S.A.C</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA COLABORA LATAM S.A.C.</t>
+  </si>
+  <si>
+    <t>1712301 PRESTAMOS SIN GARANTIA - ASOCIADAS - MN</t>
+  </si>
+  <si>
+    <t>1712302 PRESTAMOS SIN GARANTIA - ASOCIADAS - ME</t>
   </si>
 </sst>
 </file>
@@ -950,13 +977,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1017,8 +1050,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,6 +1106,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1088,69 +1145,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1488,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW102"/>
+  <dimension ref="A1:BW118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ37" workbookViewId="0">
+      <selection activeCell="BR102" sqref="BR102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1566,7 +1627,7 @@
     <col min="70" max="70" width="20.140625" style="1" customWidth="1"/>
     <col min="71" max="71" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="57" style="1" customWidth="1"/>
-    <col min="73" max="73" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.28515625" style="1" customWidth="1"/>
     <col min="74" max="74" width="7.140625" style="1" customWidth="1"/>
     <col min="75" max="16384" width="11.5703125" style="1"/>
   </cols>
@@ -1579,7 +1640,7 @@
         <v>115</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1651,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AC1" s="11" t="s">
         <v>110</v>
@@ -1784,8 +1845,8 @@
       <c r="A2" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>136</v>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>104</v>
@@ -1818,27 +1879,27 @@
       <c r="L2" s="28">
         <v>1</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>183</v>
+      <c r="M2" s="33">
+        <v>20605029451</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="O2" s="30">
+        <v>181</v>
+      </c>
+      <c r="O2" s="29">
         <v>151253</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="Q2" s="30">
         <v>500</v>
       </c>
       <c r="R2" s="20">
         <f>IF(S2&gt;0,(T2-S2),0)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31">
+      <c r="S2" s="30"/>
+      <c r="T2" s="30">
         <v>4500</v>
       </c>
       <c r="U2" s="20">
@@ -1859,7 +1920,7 @@
         <f>ROUND((V2*0.18),2)</f>
         <v>412.84</v>
       </c>
-      <c r="AA2" s="32">
+      <c r="AA2" s="31">
         <v>0</v>
       </c>
       <c r="AB2" s="9">
@@ -1881,9 +1942,9 @@
       </c>
       <c r="AG2" s="1" t="str">
         <f t="shared" ref="AG2:AG33" si="3">+VLOOKUP(B2,$BT$62:$BV$81,3,0)</f>
-        <v>S</v>
-      </c>
-      <c r="AH2" s="33"/>
+        <v>D</v>
+      </c>
+      <c r="AH2" s="32"/>
       <c r="AI2" s="26" t="s">
         <v>120</v>
       </c>
@@ -1895,8 +1956,8 @@
         <v>4011102</v>
       </c>
       <c r="AM2" s="1">
-        <f t="shared" ref="AM2:AM33" si="5">+VLOOKUP(B2,$BT$62:$BU$81,2,0)</f>
-        <v>1212102</v>
+        <f>IF(ISNUMBER(MATCH(M2,$BU$111:$BU$122,0)), VLOOKUP(B2,$BR$108:$BU$109,2,0),  VLOOKUP(B2,$BT$62:$BU$82,2,0))</f>
+        <v>1712301</v>
       </c>
       <c r="AP2" s="1">
         <v>2</v>
@@ -1910,7 +1971,7 @@
       <c r="AW2" s="26"/>
       <c r="AX2" s="26"/>
       <c r="BK2" s="1">
-        <f t="shared" ref="BK2:BK45" si="6">IF(OR(B2=$BT$63,B2=$BT$62,B2=$BT$64,B2=$BT$65),VLOOKUP(B2,$BT$62:$BW$66,4,0),"")</f>
+        <f t="shared" ref="BK2:BK45" si="5">IF(OR(B2=$BT$63,B2=$BT$62,B2=$BT$64,B2=$BT$65),VLOOKUP(B2,$BT$62:$BW$66,4,0),"")</f>
         <v>4</v>
       </c>
     </row>
@@ -1919,7 +1980,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>104</v>
@@ -1946,17 +2007,17 @@
         <v>45000</v>
       </c>
       <c r="K3" s="12">
-        <f t="shared" ref="K3:K12" si="7">+J3</f>
+        <f t="shared" ref="K3:K12" si="6">+J3</f>
         <v>45000</v>
       </c>
       <c r="L3" s="18">
         <v>1</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>181</v>
+      <c r="M3" s="33">
+        <v>20612940151</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>127</v>
@@ -2028,8 +2089,8 @@
         <v>4011102</v>
       </c>
       <c r="AM3" s="1">
-        <f t="shared" si="5"/>
-        <v>1212102</v>
+        <f t="shared" ref="AM3:AM50" si="7">IF(ISNUMBER(MATCH(M3,$BU$111:$BU$122,0)), VLOOKUP(B3,$BR$108:$BU$109,2,0),  VLOOKUP(B3,$BT$62:$BU$82,2,0))</f>
+        <v>1712302</v>
       </c>
       <c r="AP3" s="1">
         <v>2</v>
@@ -2045,7 +2106,7 @@
         <v>114</v>
       </c>
       <c r="BK3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BT3" s="5" t="s">
@@ -2057,7 +2118,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>104</v>
@@ -2084,17 +2145,17 @@
         <v>45000</v>
       </c>
       <c r="K4" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45000</v>
       </c>
       <c r="L4" s="18">
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>128</v>
@@ -2168,7 +2229,7 @@
         <v>4011102</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1212102</v>
       </c>
       <c r="AP4" s="1">
@@ -2182,11 +2243,11 @@
         <v>114</v>
       </c>
       <c r="BK4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="BS4" s="1" t="str">
         <f>+MID(BT4,1,7)</f>
@@ -2201,7 +2262,7 @@
         <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>104</v>
@@ -2219,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I5" s="12">
         <v>45046</v>
@@ -2228,20 +2289,20 @@
         <v>45046</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45046</v>
       </c>
       <c r="L5" s="18">
         <v>1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>129</v>
@@ -2301,7 +2362,7 @@
       </c>
       <c r="AH5" s="15"/>
       <c r="AI5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AJ5" s="19">
         <f t="shared" si="4"/>
@@ -2311,7 +2372,7 @@
         <v>4011102</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1212102</v>
       </c>
       <c r="AP5" s="1">
@@ -2327,11 +2388,11 @@
         <v>44986</v>
       </c>
       <c r="BK5" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BS5" s="1" t="str">
         <f t="shared" ref="BS5:BS7" si="9">+MID(BT5,1,7)</f>
@@ -2346,7 +2407,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>104</v>
@@ -2364,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I6" s="12">
         <v>45016</v>
@@ -2373,17 +2434,17 @@
         <v>45016</v>
       </c>
       <c r="K6" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45016</v>
       </c>
       <c r="L6" s="18">
         <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O6" s="14">
         <v>7525698526</v>
@@ -2450,7 +2511,7 @@
         <v>3.8530000000000002</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AJ6" s="19">
         <f t="shared" si="4"/>
@@ -2460,7 +2521,7 @@
         <v>4011102</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1212201</v>
       </c>
       <c r="AP6" s="1">
@@ -2477,11 +2538,11 @@
       </c>
       <c r="AV6" s="12"/>
       <c r="BK6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="BS6" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2496,17 +2557,17 @@
         <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I7" s="12">
         <v>45021</v>
@@ -2515,7 +2576,7 @@
         <v>45021</v>
       </c>
       <c r="K7" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45021</v>
       </c>
       <c r="L7" s="18">
@@ -2583,7 +2644,7 @@
         <v>S</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AJ7" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2592,17 +2653,17 @@
       <c r="AK7" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM7" s="19">
-        <f t="shared" si="5"/>
+      <c r="AM7" s="1">
+        <f t="shared" si="7"/>
         <v>1312301</v>
       </c>
       <c r="AV7" s="12"/>
       <c r="BK7" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BS7" s="1" t="str">
         <f t="shared" si="9"/>
@@ -2617,17 +2678,17 @@
         <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I8" s="12">
         <v>45017</v>
@@ -2636,7 +2697,7 @@
         <v>44927</v>
       </c>
       <c r="K8" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44927</v>
       </c>
       <c r="L8" s="18">
@@ -2705,7 +2766,7 @@
         <v>S</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AJ8" s="19" t="str">
         <f t="shared" si="4"/>
@@ -2714,21 +2775,21 @@
       <c r="AK8" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM8" s="19">
-        <f t="shared" si="5"/>
+      <c r="AM8" s="1">
+        <f t="shared" si="7"/>
         <v>1312301</v>
       </c>
       <c r="AT8" s="1">
         <v>1</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AV8" s="12">
         <v>45017</v>
       </c>
       <c r="BK8" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -2737,17 +2798,17 @@
         <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I9" s="12">
         <v>44986</v>
@@ -2756,17 +2817,17 @@
         <v>44986</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44986</v>
       </c>
       <c r="L9" s="18">
         <v>1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O9" s="14"/>
       <c r="Q9" s="20">
@@ -2825,7 +2886,7 @@
         <v>S</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AJ9" s="19">
         <f t="shared" si="4"/>
@@ -2834,17 +2895,17 @@
       <c r="AK9" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM9" s="19">
-        <f t="shared" si="5"/>
+      <c r="AM9" s="1">
+        <f t="shared" si="7"/>
         <v>1212102</v>
       </c>
       <c r="AV9" s="12"/>
       <c r="BK9" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BS9" s="17">
         <v>1212101</v>
@@ -2864,17 +2925,17 @@
         <v>98</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I10" s="12">
         <v>44986</v>
@@ -2883,7 +2944,7 @@
         <v>44986</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44986</v>
       </c>
       <c r="L10" s="18">
@@ -2952,7 +3013,7 @@
         <v>S</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AJ10" s="19">
         <f t="shared" si="4"/>
@@ -2961,17 +3022,17 @@
       <c r="AK10" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM10" s="19">
-        <f t="shared" si="5"/>
+      <c r="AM10" s="1">
+        <f t="shared" si="7"/>
         <v>1312301</v>
       </c>
       <c r="AV10" s="12"/>
       <c r="BK10" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BS10" s="17">
         <v>1212102</v>
@@ -2982,17 +3043,17 @@
         <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I11" s="12">
         <v>45000</v>
@@ -3001,7 +3062,7 @@
         <v>45000</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45000</v>
       </c>
       <c r="L11" s="18">
@@ -3011,7 +3072,7 @@
         <v>72929008</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O11" s="14"/>
       <c r="Q11" s="20">
@@ -3070,7 +3131,7 @@
         <v>S</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AJ11" s="19" t="str">
         <f t="shared" si="4"/>
@@ -3079,17 +3140,17 @@
       <c r="AK11" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM11" s="19">
-        <f t="shared" si="5"/>
+      <c r="AM11" s="1">
+        <f t="shared" si="7"/>
         <v>1212102</v>
       </c>
       <c r="AV11" s="12"/>
       <c r="BK11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BS11" s="17">
         <v>1212201</v>
@@ -3100,17 +3161,17 @@
         <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I12" s="12">
         <v>45003</v>
@@ -3119,7 +3180,7 @@
         <v>45003</v>
       </c>
       <c r="K12" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45003</v>
       </c>
       <c r="L12" s="18">
@@ -3188,7 +3249,7 @@
         <v>S</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AJ12" s="19" t="str">
         <f t="shared" si="4"/>
@@ -3197,17 +3258,17 @@
       <c r="AK12" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM12" s="19">
-        <f t="shared" si="5"/>
+      <c r="AM12" s="1">
+        <f t="shared" si="7"/>
         <v>1212101</v>
       </c>
       <c r="AV12" s="12"/>
       <c r="BK12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BS12" s="17">
         <v>1212202</v>
@@ -3282,13 +3343,16 @@
       <c r="AK13" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM13" s="19" t="e">
+      <c r="AM13" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AV13" s="12" t="str">
+        <f>VLOOKUP(B2,$BR$108:$BR$109,1,0)</f>
+        <v>Fact USD</v>
+      </c>
+      <c r="BK13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV13" s="12"/>
-      <c r="BK13" s="1" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BT13" s="5" t="s">
@@ -3364,17 +3428,17 @@
       <c r="AK14" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM14" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM14" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV14" s="12"/>
       <c r="BK14" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BS14" s="1" t="str">
         <f t="shared" ref="BS14:BS15" si="14">+MID(BT14,1,7)</f>
@@ -3453,24 +3517,24 @@
       <c r="AK15" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM15" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM15" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV15" s="12"/>
       <c r="BK15" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BS15" s="1" t="str">
         <f t="shared" si="14"/>
         <v>1312302</v>
       </c>
       <c r="BT15" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.15">
@@ -3542,13 +3606,13 @@
       <c r="AK16" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM16" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM16" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV16" s="12"/>
       <c r="BK16" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT16" s="8" t="s">
@@ -3624,17 +3688,17 @@
       <c r="AK17" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM17" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM17" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV17" s="12"/>
       <c r="BK17" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BS17" s="1" t="str">
         <f>+MID(BT14,1,7)</f>
@@ -3716,17 +3780,17 @@
       <c r="AK18" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM18" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM18" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV18" s="12"/>
       <c r="BK18" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BS18" s="1" t="str">
         <f>+MID(BT15,1,7)</f>
@@ -3808,13 +3872,13 @@
       <c r="AK19" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM19" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM19" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV19" s="12"/>
       <c r="BK19" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT19" s="1" t="s">
@@ -3893,13 +3957,13 @@
       <c r="AK20" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM20" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM20" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV20" s="12"/>
       <c r="BK20" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT20" s="1" t="s">
@@ -3978,13 +4042,13 @@
       <c r="AK21" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM21" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM21" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV21" s="12"/>
       <c r="BK21" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT21" s="1" t="s">
@@ -4063,13 +4127,13 @@
       <c r="AK22" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM22" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM22" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV22" s="12"/>
       <c r="BK22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT22" s="8" t="s">
@@ -4145,13 +4209,13 @@
       <c r="AK23" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM23" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM23" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV23" s="12"/>
       <c r="BK23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT23" s="1" t="s">
@@ -4230,13 +4294,13 @@
       <c r="AK24" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM24" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM24" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV24" s="12"/>
       <c r="BK24" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT24" s="8" t="s">
@@ -4312,13 +4376,13 @@
       <c r="AK25" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM25" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM25" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV25" s="12"/>
       <c r="BK25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT25" s="1" t="s">
@@ -4400,13 +4464,13 @@
       <c r="AK26" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM26" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM26" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV26" s="12"/>
       <c r="BK26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT26" s="8" t="s">
@@ -4482,13 +4546,13 @@
       <c r="AK27" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM27" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM27" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV27" s="12"/>
       <c r="BK27" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT27" s="1" t="s">
@@ -4567,13 +4631,13 @@
       <c r="AK28" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM28" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM28" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV28" s="12"/>
       <c r="BK28" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4646,13 +4710,13 @@
       <c r="AK29" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM29" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM29" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV29" s="12"/>
       <c r="BK29" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT29" s="5" t="s">
@@ -4728,17 +4792,17 @@
       <c r="AK30" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM30" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM30" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV30" s="12"/>
       <c r="BK30" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BS30" s="1" t="str">
         <f t="shared" ref="BS30:BS33" si="15">+MID(BT30,1,7)</f>
@@ -4817,17 +4881,17 @@
       <c r="AK31" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM31" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM31" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV31" s="12"/>
       <c r="BK31" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BS31" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4906,17 +4970,17 @@
       <c r="AK32" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM32" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM32" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV32" s="12"/>
       <c r="BK32" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR32" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BS32" s="1" t="str">
         <f t="shared" si="15"/>
@@ -4995,17 +5059,17 @@
       <c r="AK33" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM33" s="19" t="e">
-        <f t="shared" si="5"/>
+      <c r="AM33" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV33" s="12"/>
       <c r="BK33" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR33" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BS33" s="1" t="str">
         <f t="shared" si="15"/>
@@ -5084,13 +5148,13 @@
       <c r="AK34" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM34" s="19" t="e">
-        <f t="shared" ref="AM34:AM50" si="21">+VLOOKUP(B34,$BT$62:$BU$81,2,0)</f>
+      <c r="AM34" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV34" s="12"/>
       <c r="BK34" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT34" s="8" t="s">
@@ -5166,20 +5230,20 @@
       <c r="AK35" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM35" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM35" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV35" s="12"/>
       <c r="BK35" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR35" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BS35" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BT35" s="1" t="s">
         <v>68</v>
@@ -5257,20 +5321,20 @@
       <c r="AK36" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM36" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM36" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV36" s="12"/>
       <c r="BK36" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR36" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS36" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BT36" s="8" t="s">
         <v>70</v>
@@ -5345,20 +5409,20 @@
       <c r="AK37" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM37" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM37" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV37" s="12"/>
       <c r="BK37" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR37" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BS37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BT37" s="1" t="s">
         <v>71</v>
@@ -5436,20 +5500,20 @@
       <c r="AK38" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM38" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM38" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV38" s="12"/>
       <c r="BK38" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR38" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BS38" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="6:73" x14ac:dyDescent="0.15">
@@ -5521,13 +5585,13 @@
       <c r="AK39" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM39" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM39" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV39" s="12"/>
       <c r="BK39" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT39" s="8" t="s">
@@ -5603,13 +5667,13 @@
       <c r="AK40" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM40" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM40" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV40" s="12"/>
       <c r="BK40" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT40" s="1" t="s">
@@ -5685,17 +5749,17 @@
       <c r="AK41" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM41" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM41" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV41" s="12"/>
       <c r="BK41" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT41" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="6:73" x14ac:dyDescent="0.15">
@@ -5767,13 +5831,13 @@
       <c r="AK42" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM42" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM42" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV42" s="12"/>
       <c r="BK42" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5846,13 +5910,13 @@
       <c r="AK43" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM43" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM43" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV43" s="12"/>
       <c r="BK43" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BS43" s="6" t="s">
@@ -5931,13 +5995,13 @@
       <c r="AK44" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM44" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM44" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV44" s="12"/>
       <c r="BK44" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR44" s="1">
@@ -6019,13 +6083,13 @@
       <c r="AK45" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM45" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM45" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV45" s="12"/>
       <c r="BK45" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR45" s="1">
@@ -6107,8 +6171,8 @@
       <c r="AK46" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM46" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM46" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV46" s="12"/>
@@ -6191,8 +6255,8 @@
       <c r="AK47" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM47" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM47" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV47" s="12"/>
@@ -6279,8 +6343,8 @@
       <c r="AK48" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM48" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM48" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV48" s="12"/>
@@ -6367,8 +6431,8 @@
       <c r="AK49" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM49" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM49" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV49" s="12"/>
@@ -6455,8 +6519,8 @@
       <c r="AK50" s="1">
         <v>4011102</v>
       </c>
-      <c r="AM50" s="19" t="e">
-        <f t="shared" si="21"/>
+      <c r="AM50" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AV50" s="12"/>
@@ -6581,7 +6645,7 @@
     </row>
     <row r="62" spans="6:75" x14ac:dyDescent="0.15">
       <c r="BT62" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BU62" s="1">
         <v>1212101</v>
@@ -6595,7 +6659,7 @@
     </row>
     <row r="63" spans="6:75" x14ac:dyDescent="0.15">
       <c r="BT63" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BU63" s="1">
         <v>1212102</v>
@@ -6609,7 +6673,7 @@
     </row>
     <row r="64" spans="6:75" x14ac:dyDescent="0.15">
       <c r="BT64" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BU64" s="1">
         <v>1212201</v>
@@ -6623,7 +6687,7 @@
     </row>
     <row r="65" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BU65" s="1">
         <v>1212202</v>
@@ -6637,7 +6701,7 @@
     </row>
     <row r="66" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT66" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BU66" s="1">
         <v>1212101</v>
@@ -6648,7 +6712,7 @@
     </row>
     <row r="67" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT67" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BU67" s="1">
         <v>1212102</v>
@@ -6659,7 +6723,7 @@
     </row>
     <row r="68" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT68" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BU68" s="1">
         <v>1212201</v>
@@ -6670,7 +6734,7 @@
     </row>
     <row r="69" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT69" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BU69" s="1">
         <v>1212202</v>
@@ -6681,7 +6745,7 @@
     </row>
     <row r="70" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT70" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BU70" s="1">
         <v>1312301</v>
@@ -6692,7 +6756,7 @@
     </row>
     <row r="71" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT71" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BU71" s="1">
         <v>1312302</v>
@@ -6703,7 +6767,7 @@
     </row>
     <row r="72" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT72" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU72" s="1">
         <v>1312301</v>
@@ -6714,7 +6778,7 @@
     </row>
     <row r="73" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT73" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BU73" s="1">
         <v>1312302</v>
@@ -6725,7 +6789,7 @@
     </row>
     <row r="74" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT74" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BU74" s="1">
         <v>1212101</v>
@@ -6736,7 +6800,7 @@
     </row>
     <row r="75" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT75" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BU75" s="1">
         <v>1212102</v>
@@ -6747,7 +6811,7 @@
     </row>
     <row r="76" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT76" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BU76" s="1">
         <v>1212201</v>
@@ -6758,7 +6822,7 @@
     </row>
     <row r="77" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT77" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BU77" s="1">
         <v>1212202</v>
@@ -6769,7 +6833,7 @@
     </row>
     <row r="78" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT78" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BU78" s="1">
         <v>1212101</v>
@@ -6780,7 +6844,7 @@
     </row>
     <row r="79" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT79" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BU79" s="1">
         <v>1212102</v>
@@ -6791,7 +6855,7 @@
     </row>
     <row r="80" spans="72:75" x14ac:dyDescent="0.15">
       <c r="BT80" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BU80" s="1">
         <v>1212201</v>
@@ -6802,7 +6866,7 @@
     </row>
     <row r="81" spans="72:74" x14ac:dyDescent="0.15">
       <c r="BT81" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BU81" s="1">
         <v>1212202</v>
@@ -6838,7 +6902,7 @@
     </row>
     <row r="89" spans="72:74" x14ac:dyDescent="0.15">
       <c r="BT89" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="72:74" x14ac:dyDescent="0.15">
@@ -6851,7 +6915,7 @@
     </row>
     <row r="91" spans="72:74" x14ac:dyDescent="0.15">
       <c r="BT91" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BU91" s="18" t="str">
         <f>+MID(BT17,1,7)</f>
@@ -6860,7 +6924,7 @@
     </row>
     <row r="92" spans="72:74" x14ac:dyDescent="0.15">
       <c r="BT92" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BU92" s="18" t="str">
         <f>+MID(BT18,1,7)</f>
@@ -6869,7 +6933,7 @@
     </row>
     <row r="93" spans="72:74" x14ac:dyDescent="0.15">
       <c r="BT93" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BU93" s="18" t="str">
         <f>+MID(BT19,1,7)</f>
@@ -6878,7 +6942,7 @@
     </row>
     <row r="94" spans="72:74" x14ac:dyDescent="0.15">
       <c r="BT94" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BU94" s="18" t="str">
         <f>+MID(BT20,1,7)</f>
@@ -6887,7 +6951,7 @@
     </row>
     <row r="95" spans="72:74" x14ac:dyDescent="0.15">
       <c r="BT95" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BU95" s="18" t="str">
         <f>+MID(BT21,1,7)</f>
@@ -6896,65 +6960,167 @@
     </row>
     <row r="96" spans="72:74" x14ac:dyDescent="0.15">
       <c r="BT96" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU96" s="18">
         <v>7521101</v>
       </c>
     </row>
-    <row r="97" spans="72:73" x14ac:dyDescent="0.15">
+    <row r="97" spans="50:73" x14ac:dyDescent="0.15">
       <c r="BT97" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BU97" s="18" t="str">
         <f>+MID(BT23,1,7)</f>
         <v>7521101</v>
       </c>
     </row>
-    <row r="98" spans="72:73" x14ac:dyDescent="0.15">
+    <row r="98" spans="50:73" x14ac:dyDescent="0.15">
       <c r="BT98" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BU98" s="18" t="str">
         <f>+MID(BT25,1,7)</f>
         <v>7599102</v>
       </c>
     </row>
-    <row r="99" spans="72:73" x14ac:dyDescent="0.15">
+    <row r="99" spans="50:73" x14ac:dyDescent="0.15">
       <c r="BT99" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="BU99" s="18" t="str">
         <f>+MID(BT35,1,7)</f>
         <v>7599104</v>
       </c>
     </row>
-    <row r="100" spans="72:73" x14ac:dyDescent="0.15">
+    <row r="100" spans="50:73" x14ac:dyDescent="0.15">
       <c r="BT100" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BU100" s="18">
         <v>7723101</v>
       </c>
     </row>
-    <row r="102" spans="72:73" x14ac:dyDescent="0.15">
+    <row r="102" spans="50:73" x14ac:dyDescent="0.15">
       <c r="BT102" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="BU102" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="50:73" x14ac:dyDescent="0.15">
+      <c r="BS107" s="33"/>
+      <c r="BT107" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="BU107" s="35"/>
+    </row>
+    <row r="108" spans="50:73" x14ac:dyDescent="0.15">
+      <c r="BR108" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BS108" s="1">
+        <v>1712301</v>
+      </c>
+      <c r="BT108" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="50:73" x14ac:dyDescent="0.15">
+      <c r="BR109" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS109" s="1">
+        <v>1712302</v>
+      </c>
+      <c r="BT109" s="36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="50:73" x14ac:dyDescent="0.15">
+      <c r="AX110" s="33"/>
+      <c r="BT110" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU110" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="50:73" x14ac:dyDescent="0.15">
+      <c r="BT111" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU111" s="33">
+        <v>20605029451</v>
+      </c>
+    </row>
+    <row r="112" spans="50:73" x14ac:dyDescent="0.15">
+      <c r="BT112" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="BU112" s="33">
+        <v>20606399571</v>
+      </c>
+    </row>
+    <row r="113" spans="72:73" x14ac:dyDescent="0.15">
+      <c r="BT113" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU113" s="33">
+        <v>20607058645</v>
+      </c>
+    </row>
+    <row r="114" spans="72:73" x14ac:dyDescent="0.15">
+      <c r="BT114" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="BU114" s="33">
+        <v>20607501425</v>
+      </c>
+    </row>
+    <row r="115" spans="72:73" x14ac:dyDescent="0.15">
+      <c r="BT115" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="BU115" s="33">
+        <v>20608200402</v>
+      </c>
+    </row>
+    <row r="116" spans="72:73" x14ac:dyDescent="0.15">
+      <c r="BT116" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU116" s="33">
+        <v>20610321471</v>
+      </c>
+    </row>
+    <row r="117" spans="72:73" x14ac:dyDescent="0.15">
+      <c r="BT117" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="BU117" s="33">
+        <v>20612940151</v>
+      </c>
+    </row>
+    <row r="118" spans="72:73" x14ac:dyDescent="0.15">
+      <c r="BT118" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU118" s="33">
+        <v>20606884011</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BR44:BT59">
     <sortCondition ref="BR44:BR59"/>
   </sortState>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="5">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG1 AG51:AG1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"S,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Solo de la lista " sqref="B2:B50" xr:uid="{02454875-223A-4C56-91C7-DCDBD4D7C7A7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Solo de la lista " sqref="B2:B50 BR108:BR109" xr:uid="{02454875-223A-4C56-91C7-DCDBD4D7C7A7}">
       <formula1>$BT$62:$BT$81</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P50" xr:uid="{1CBE6ABB-121A-4F64-991E-D1B3DEA853DB}">
